--- a/user-data/oda-LT/oda-LT.xlsx
+++ b/user-data/oda-LT/oda-LT.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/oda-LT/oda-LT.xlsx
+++ b/user-data/oda-LT/oda-LT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -25,6 +25,282 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral-unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central-asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle-east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south-central-asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South &amp; Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
   </si>
   <si>
     <t xml:space="preserve">Name: oda-LT</t>
@@ -394,22 +670,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +701,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -492,424 +768,984 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61963.26</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11092.34</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10935.6</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12468.28</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4393.56</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6425.11</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11585.09</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6425.12</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15006.69</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1549930.09</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1169599.15</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2337797.68</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4494217.23</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2772.05</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1240.37</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23304.39</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22184.69</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27731.6</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30920.93</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28171.98</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D23" t="n">
+        <v>451787</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1579589.26</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D25" t="n">
+        <v>101201.52</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="n">
+        <v>181382.62</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21540.08</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="n">
+        <v>28840.06</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4875.21</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11589.28</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24193.74</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="n">
+        <v>279.53</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29103.4</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D34" t="n">
+        <v>501.16</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" t="n">
+        <v>675.54</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9985.24</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1252.9</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5709.37</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48252.9</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1240.37</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>110926</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="n">
+        <v>72674.8</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>69912.65</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>675.54</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1663.89</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" t="n">
+        <v>211.87</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19966.7</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9416.21</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33276.94</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9983.36</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" t="n">
+        <v>458.15</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2975.35</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3324.59</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19283.33</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25380.5</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1177.54</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54006.94</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="n">
+        <v>99833.6</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1118.1</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>602.09</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13973.54</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D63" t="n">
+        <v>563243.17</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1676093.93</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1452.07</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17178.3</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D67" t="n">
+        <v>275.09</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9690.73</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1252.9</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/oda-LT/oda-LT.xlsx
+++ b/user-data/oda-LT/oda-LT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -27,13 +27,289 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral-unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central-asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle-east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south-central-asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South &amp; Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: oda-LT</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Gross official development assistance from Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -394,22 +670,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +701,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -492,424 +768,984 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61963.26</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11092.34</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10935.6</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12468.28</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4393.56</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6425.11</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11585.09</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6425.12</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15006.69</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1549930.09</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1169599.15</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2337797.68</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4494217.23</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2772.05</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1240.37</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23304.39</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22184.69</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27731.6</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30920.93</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28171.98</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D23" t="n">
+        <v>451787</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1579589.26</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D25" t="n">
+        <v>101201.52</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D26" t="n">
+        <v>181382.62</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21540.08</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D28" t="n">
+        <v>28840.06</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4875.21</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11589.28</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24193.74</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="n">
+        <v>279.53</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29103.4</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D34" t="n">
+        <v>501.16</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" t="n">
+        <v>675.54</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9985.24</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1252.9</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5709.37</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48252.9</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1240.37</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>110926</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="n">
+        <v>72674.8</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>69912.65</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>675.54</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1663.89</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" t="n">
+        <v>211.87</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19966.7</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9416.21</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33276.94</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9983.36</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" t="n">
+        <v>458.15</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2975.35</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3324.59</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19283.33</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D56" t="n">
+        <v>25380.5</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1177.54</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54006.94</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D59" t="n">
+        <v>99833.6</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1118.1</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>602.09</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13973.54</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D63" t="n">
+        <v>563243.17</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1676093.93</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1452.07</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17178.3</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D67" t="n">
+        <v>275.09</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9690.73</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1252.9</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11092.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
